--- a/inst/extdata/ExampleDQOFrequencyCompleteness.xlsx
+++ b/inst/extdata/ExampleDQOFrequencyCompleteness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Example input files\Official Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B01976F-154F-425C-BAE6-9FA59F366DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D691F630-B190-4FB0-A99F-12655A53F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Completeness" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Parameter</t>
   </si>
@@ -142,6 +142,9 @@
     <t>numeric, or na</t>
   </si>
   <si>
+    <t>Template updated 12/8/22.</t>
+  </si>
+  <si>
     <t>Water Temp</t>
   </si>
   <si>
@@ -152,13 +155,16 @@
   </si>
   <si>
     <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Samples updated 1/8/23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +192,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -309,6 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -631,37 +645,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59ABFCD-EF8D-425C-92A4-3137E9EF3DBA}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="17" customWidth="1"/>
-    <col min="2" max="6" width="12.26953125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="17" customWidth="1"/>
+    <col min="2" max="6" width="12.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
-      <c r="B1" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -680,11 +694,11 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5">
         <v>10</v>
@@ -705,7 +719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
@@ -728,7 +742,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -751,9 +765,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5">
         <v>10</v>
@@ -774,9 +788,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="5">
         <v>10</v>
@@ -797,7 +811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
@@ -820,9 +834,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5">
         <v>10</v>
@@ -843,7 +857,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
@@ -877,40 +891,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B018340-0568-4AC2-B9FC-8F5216302128}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="2" width="96.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="96.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -924,7 +944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -938,7 +958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
         <v>31</v>
@@ -946,7 +966,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -960,7 +980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -974,7 +994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
@@ -988,7 +1008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -1002,7 +1022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -1016,7 +1036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
     </row>
   </sheetData>
